--- a/ELE202-GradeCalculator.xlsx
+++ b/ELE202-GradeCalculator.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arshi\Desktop\ArshiaRx\GITHUB\Course Calculation Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF90A97-4582-456F-B37C-FF40A7C6960E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC636D8-2812-47CE-8BEF-5EF5908ECDA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1B390BFF-6D55-4E4A-900F-4522CA11AA1B}"/>
   </bookViews>
@@ -191,14 +191,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -519,7 +517,7 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -537,35 +535,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="M2" s="6"/>
-    </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="7"/>
+      <c r="M3" s="5"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="5"/>
+      <c r="B4" s="4"/>
       <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="5"/>
       <c r="F4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
       <c r="L4" s="2" t="s">
         <v>9</v>
       </c>
@@ -589,7 +579,7 @@
         <f>C5*B6</f>
         <v>0</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -614,8 +604,8 @@
         <f t="shared" ref="D6:D9" si="0">C6*B7</f>
         <v>0</v>
       </c>
-      <c r="F6" s="4">
-        <v>20</v>
+      <c r="F6" s="3">
+        <v>5</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2">
@@ -626,14 +616,14 @@
         <f>G6*40</f>
         <v>0</v>
       </c>
-      <c r="L6" s="9" t="s">
+      <c r="L6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="M6" s="2">
         <f>D22</f>
         <v>0</v>
       </c>
-      <c r="O6" s="6" t="s">
+      <c r="O6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -664,10 +654,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="L8" s="9" t="s">
+      <c r="L8" s="7" t="s">
         <v>14</v>
       </c>
       <c r="M8" s="2">
@@ -679,7 +666,7 @@
       <c r="A9" s="2">
         <v>5</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>2</v>
       </c>
       <c r="C9" s="2"/>
@@ -690,16 +677,16 @@
       <c r="F9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G10" s="2" t="s">
@@ -722,8 +709,8 @@
         <f>(D5+D6+D7+D8+D9)</f>
         <v>0</v>
       </c>
-      <c r="F11" s="4">
-        <v>20</v>
+      <c r="F11" s="3">
+        <v>5</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2">
@@ -739,11 +726,11 @@
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="5"/>
+      <c r="B14" s="4"/>
       <c r="C14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="7"/>
+      <c r="D14" s="5"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
